--- a/biology/Médecine/Guglielmo_Gratarolo/Guglielmo_Gratarolo.xlsx
+++ b/biology/Médecine/Guglielmo_Gratarolo/Guglielmo_Gratarolo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Guglielmo Grataroli ou Gratarolo ou Guilelmus Gratarolus et usuellement appelé en français Guillaume Gratarole[1], (né le 16 mai 1516 à Bergame et mort le 16 avril 1568 à Bâle) est un médecin et alchimiste italien du XVIe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Guglielmo Grataroli ou Gratarolo ou Guilelmus Gratarolus et usuellement appelé en français Guillaume Gratarole, (né le 16 mai 1516 à Bergame et mort le 16 avril 1568 à Bâle) est un médecin et alchimiste italien du XVIe siècle.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se fait remarquer à l'université de Padoue par ses progrès rapides puis voyage en Italie, en Suisse, en Savoie et en Bourgogne[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se fait remarquer à l'université de Padoue par ses progrès rapides puis voyage en Italie, en Suisse, en Savoie et en Bourgogne.
 Calviniste, Guglielmo Gratarolo se réfugie en 1552 à Bâle, où il enseigne la médecine et édite de nombreux ouvrages notamment d'alchimie, dont, en 1561 le recueil alchimique Verae alchemiae artisque metallicae, citra aenigmata, doctrina en collaboration avec l'imprimeur Heinrich Petri.
 </t>
         </is>
@@ -543,13 +557,15 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>De Memoria Reparanda, Augenda, Servandaque Andream Gesner. F. &amp; Rodolphum Vuyssenbachium, 1553[3]  (réédition  Kessinger Publishing, 2009)
-Regimen omnium iter agentium, 1556 édition de 1563[4]
-Verae alchemiae artisque metallicae, citra aenigmata, doctrina, Heinrich Petri et Pietro Perna, Bâle 1561. En ligne sur le site de la BIUM[5], sur la biblioteca virtual Miguel de Cervantes[6]
-Pestis descriptio, causa signa omnigena et praeservatio, apud Federicum Morellum (Parisiis), 1561[7]
-Regimen omnium iter agentium, postremo editum, Wendelinum Rihelium, 1563[4]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>De Memoria Reparanda, Augenda, Servandaque Andream Gesner. F. &amp; Rodolphum Vuyssenbachium, 1553  (réédition  Kessinger Publishing, 2009)
+Regimen omnium iter agentium, 1556 édition de 1563
+Verae alchemiae artisque metallicae, citra aenigmata, doctrina, Heinrich Petri et Pietro Perna, Bâle 1561. En ligne sur le site de la BIUM, sur la biblioteca virtual Miguel de Cervantes
+Pestis descriptio, causa signa omnigena et praeservatio, apud Federicum Morellum (Parisiis), 1561
+Regimen omnium iter agentium, postremo editum, Wendelinum Rihelium, 1563</t>
         </is>
       </c>
     </row>
